--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H2">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I2">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J2">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N2">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O2">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P2">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q2">
-        <v>852.8068283625931</v>
+        <v>1066.804962966347</v>
       </c>
       <c r="R2">
-        <v>3411.227313450373</v>
+        <v>4267.21985186539</v>
       </c>
       <c r="S2">
-        <v>0.1362432997295789</v>
+        <v>0.2381680547975078</v>
       </c>
       <c r="T2">
-        <v>0.09235954255893505</v>
+        <v>0.194110494901305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H3">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I3">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J3">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P3">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q3">
-        <v>26.6100451553675</v>
+        <v>34.84891387077916</v>
       </c>
       <c r="R3">
-        <v>159.660270932205</v>
+        <v>209.093483224675</v>
       </c>
       <c r="S3">
-        <v>0.004251185892684848</v>
+        <v>0.007780145684109631</v>
       </c>
       <c r="T3">
-        <v>0.004322828188549746</v>
+        <v>0.00951140108040998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H4">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I4">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J4">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N4">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O4">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P4">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q4">
-        <v>15.2869126573095</v>
+        <v>2.976474771660833</v>
       </c>
       <c r="R4">
-        <v>91.72147594385699</v>
+        <v>17.858848629965</v>
       </c>
       <c r="S4">
-        <v>0.002442217104556509</v>
+        <v>0.0006645087257085429</v>
       </c>
       <c r="T4">
-        <v>0.002483374100460174</v>
+        <v>0.0008123766916800876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H5">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I5">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J5">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N5">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O5">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P5">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q5">
-        <v>17.2032199269975</v>
+        <v>34.73742008023875</v>
       </c>
       <c r="R5">
-        <v>68.81287970798999</v>
+        <v>138.949680320955</v>
       </c>
       <c r="S5">
-        <v>0.002748363839121663</v>
+        <v>0.007755254293333592</v>
       </c>
       <c r="T5">
-        <v>0.001863120076147761</v>
+        <v>0.006320647201172029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H6">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I6">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J6">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N6">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O6">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P6">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q6">
-        <v>531.1095080769466</v>
+        <v>17.81675236985</v>
       </c>
       <c r="R6">
-        <v>3186.657048461679</v>
+        <v>106.9005142191</v>
       </c>
       <c r="S6">
-        <v>0.08484935801591735</v>
+        <v>0.003977654212384762</v>
       </c>
       <c r="T6">
-        <v>0.08627926556745091</v>
+        <v>0.004862770712693074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2630565</v>
+        <v>19.9887275</v>
       </c>
       <c r="H7">
-        <v>30.526113</v>
+        <v>39.977455</v>
       </c>
       <c r="I7">
-        <v>0.233863797955522</v>
+        <v>0.2607251058521317</v>
       </c>
       <c r="J7">
-        <v>0.1906936114921843</v>
+        <v>0.2185266677421691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N7">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O7">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P7">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q7">
-        <v>20.84001453916401</v>
+        <v>10.65822936773</v>
       </c>
       <c r="R7">
-        <v>125.040087234984</v>
+        <v>63.94937620638</v>
       </c>
       <c r="S7">
-        <v>0.003329373373662642</v>
+        <v>0.002379488139087334</v>
       </c>
       <c r="T7">
-        <v>0.003385481000640584</v>
+        <v>0.0029089771549089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J8">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N8">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O8">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P8">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q8">
-        <v>390.73415889508</v>
+        <v>373.22618254306</v>
       </c>
       <c r="R8">
-        <v>2344.40495337048</v>
+        <v>2239.35709525836</v>
       </c>
       <c r="S8">
-        <v>0.06242317645033335</v>
+        <v>0.08332409107716555</v>
       </c>
       <c r="T8">
-        <v>0.06347515107317374</v>
+        <v>0.1018655539464014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J9">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P9">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q9">
         <v>12.19203841496667</v>
@@ -1013,10 +1013,10 @@
         <v>109.7283457347</v>
       </c>
       <c r="S9">
-        <v>0.001947784057116614</v>
+        <v>0.002721916539678397</v>
       </c>
       <c r="T9">
-        <v>0.002970913072208843</v>
+        <v>0.00499140523213333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J10">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N10">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O10">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P10">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q10">
-        <v>7.004070277819998</v>
+        <v>1.041332160073333</v>
       </c>
       <c r="R10">
-        <v>63.03663250037998</v>
+        <v>9.371989440659998</v>
       </c>
       <c r="S10">
-        <v>0.001118961075886622</v>
+        <v>0.0002324811596987072</v>
       </c>
       <c r="T10">
-        <v>0.001706727229591144</v>
+        <v>0.0004263200799792549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J11">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N11">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O11">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P11">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q11">
-        <v>7.882072991099998</v>
+        <v>12.15303184557</v>
       </c>
       <c r="R11">
-        <v>47.29243794659999</v>
+        <v>72.91819107341999</v>
       </c>
       <c r="S11">
-        <v>0.001259229637125124</v>
+        <v>0.002713208182405952</v>
       </c>
       <c r="T11">
-        <v>0.001280450563356555</v>
+        <v>0.003316957327704139</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J12">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N12">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O12">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P12">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q12">
-        <v>243.34071916154</v>
+        <v>6.233265407599999</v>
       </c>
       <c r="R12">
-        <v>2190.06647245386</v>
+        <v>56.0993886684</v>
       </c>
       <c r="S12">
-        <v>0.03887579394831121</v>
+        <v>0.001391598978914309</v>
       </c>
       <c r="T12">
-        <v>0.05929641122769515</v>
+        <v>0.002551891038218599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.1071503784340102</v>
+        <v>0.09121576982520653</v>
       </c>
       <c r="J13">
-        <v>0.1310563636716984</v>
+        <v>0.1146787043788409</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N13">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O13">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P13">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q13">
-        <v>9.548358762506668</v>
+        <v>3.72882616568</v>
       </c>
       <c r="R13">
-        <v>85.93522886256</v>
+        <v>33.55943549112</v>
       </c>
       <c r="S13">
-        <v>0.001525433265237219</v>
+        <v>0.0008324738873436138</v>
       </c>
       <c r="T13">
-        <v>0.002326710505672932</v>
+        <v>0.001526576754404173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H14">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I14">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J14">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N14">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O14">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P14">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q14">
-        <v>448.3633974039914</v>
+        <v>241.122770055022</v>
       </c>
       <c r="R14">
-        <v>2690.180384423948</v>
+        <v>1446.736620330132</v>
       </c>
       <c r="S14">
-        <v>0.07162994796555706</v>
+        <v>0.05383152788463633</v>
       </c>
       <c r="T14">
-        <v>0.0728370779416341</v>
+        <v>0.06581023971412243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H15">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I15">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J15">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P15">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q15">
-        <v>13.99023771167722</v>
+        <v>7.876666248876667</v>
       </c>
       <c r="R15">
-        <v>125.912139405095</v>
+        <v>70.88999623989</v>
       </c>
       <c r="S15">
-        <v>0.002235062016916309</v>
+        <v>0.001758494142704243</v>
       </c>
       <c r="T15">
-        <v>0.003409091957084736</v>
+        <v>0.003224697280985273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H16">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I16">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J16">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N16">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O16">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P16">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q16">
-        <v>8.037098047173664</v>
+        <v>0.6727526275713333</v>
       </c>
       <c r="R16">
-        <v>72.33388242456299</v>
+        <v>6.054773648142</v>
       </c>
       <c r="S16">
-        <v>0.001283996236638395</v>
+        <v>0.0001501944499986649</v>
       </c>
       <c r="T16">
-        <v>0.00195845180586545</v>
+        <v>0.0002754240817572243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H17">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I17">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J17">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N17">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O17">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P17">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q17">
-        <v>9.044597060234999</v>
+        <v>7.851466055258999</v>
       </c>
       <c r="R17">
-        <v>54.26758236140999</v>
+        <v>47.108796331554</v>
       </c>
       <c r="S17">
-        <v>0.001444952956787226</v>
+        <v>0.001752868108609171</v>
       </c>
       <c r="T17">
-        <v>0.001469303749684601</v>
+        <v>0.002142920235554619</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H18">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I18">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J18">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N18">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O18">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P18">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q18">
-        <v>279.2309530308956</v>
+        <v>4.02700103012</v>
       </c>
       <c r="R18">
-        <v>2513.078577278061</v>
+        <v>36.24300927108</v>
       </c>
       <c r="S18">
-        <v>0.04460957061121134</v>
+        <v>0.0008990425010250873</v>
       </c>
       <c r="T18">
-        <v>0.06804201728124964</v>
+        <v>0.001648649169844519</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.024555666666666</v>
+        <v>4.517918</v>
       </c>
       <c r="H19">
-        <v>24.073667</v>
+        <v>13.553754</v>
       </c>
       <c r="I19">
-        <v>0.122953948647977</v>
+        <v>0.0589299468303448</v>
       </c>
       <c r="J19">
-        <v>0.1503858189246111</v>
+        <v>0.07408817537327214</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N19">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O19">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P19">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q19">
-        <v>10.95664271200622</v>
+        <v>2.409008092616</v>
       </c>
       <c r="R19">
-        <v>98.60978440805602</v>
+        <v>21.681072833544</v>
       </c>
       <c r="S19">
-        <v>0.001750418860866673</v>
+        <v>0.000537819743371316</v>
       </c>
       <c r="T19">
-        <v>0.002669876189092538</v>
+        <v>0.0009862448910080727</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H20">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I20">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J20">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N20">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O20">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P20">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q20">
-        <v>1142.7194842635</v>
+        <v>1444.636044236185</v>
       </c>
       <c r="R20">
-        <v>4570.877937054001</v>
+        <v>5778.544176944742</v>
       </c>
       <c r="S20">
-        <v>0.1825593651733134</v>
+        <v>0.3225202061203313</v>
       </c>
       <c r="T20">
-        <v>0.1237572746015649</v>
+        <v>0.2628587485375201</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H21">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I21">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J21">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P21">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q21">
-        <v>35.65616041625</v>
+        <v>47.1913787692025</v>
       </c>
       <c r="R21">
-        <v>213.9369624975</v>
+        <v>283.148272615215</v>
       </c>
       <c r="S21">
-        <v>0.005696381395215128</v>
+        <v>0.01053564547864587</v>
       </c>
       <c r="T21">
-        <v>0.005792378571433073</v>
+        <v>0.01288006084424328</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H22">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I22">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J22">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N22">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O22">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P22">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q22">
-        <v>20.48371608524999</v>
+        <v>4.0306549830295</v>
       </c>
       <c r="R22">
-        <v>122.9022965115</v>
+        <v>24.183929898177</v>
       </c>
       <c r="S22">
-        <v>0.003272451600248847</v>
+        <v>0.0008998582591880016</v>
       </c>
       <c r="T22">
-        <v>0.00332759996394473</v>
+        <v>0.001100096729054515</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H23">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I23">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J23">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N23">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O23">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P23">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q23">
-        <v>23.05147420125</v>
+        <v>47.04039714264975</v>
       </c>
       <c r="R23">
-        <v>92.20589680499999</v>
+        <v>188.161588570599</v>
       </c>
       <c r="S23">
-        <v>0.003682673267098006</v>
+        <v>0.01050193828609003</v>
       </c>
       <c r="T23">
-        <v>0.002496489875232721</v>
+        <v>0.008559235367938308</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H24">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I24">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J24">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N24">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O24">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P24">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q24">
-        <v>711.66079230675</v>
+        <v>24.12692437533</v>
       </c>
       <c r="R24">
-        <v>4269.9647538405</v>
+        <v>144.76154625198</v>
       </c>
       <c r="S24">
-        <v>0.113693994240409</v>
+        <v>0.00538642286659496</v>
       </c>
       <c r="T24">
-        <v>0.1156100004982039</v>
+        <v>0.006585021714633795</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.45175</v>
+        <v>27.0681495</v>
       </c>
       <c r="H25">
-        <v>40.9035</v>
+        <v>54.136299</v>
       </c>
       <c r="I25">
-        <v>0.3133660633331761</v>
+        <v>0.3530663041761326</v>
       </c>
       <c r="J25">
-        <v>0.2555201226461606</v>
+        <v>0.2959224148801799</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N25">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O25">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P25">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q25">
-        <v>27.92460129800001</v>
+        <v>14.433062131194</v>
       </c>
       <c r="R25">
-        <v>167.547607788</v>
+        <v>86.59837278716401</v>
       </c>
       <c r="S25">
-        <v>0.004461197656891653</v>
+        <v>0.003222233165282419</v>
       </c>
       <c r="T25">
-        <v>0.004536379135781294</v>
+        <v>0.003939251686789907</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H26">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I26">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J26">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N26">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O26">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P26">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q26">
-        <v>696.0850867511582</v>
+        <v>295.4486058452187</v>
       </c>
       <c r="R26">
-        <v>4176.510520506949</v>
+        <v>1772.691635071312</v>
       </c>
       <c r="S26">
-        <v>0.1112056399614164</v>
+        <v>0.06595996661951323</v>
       </c>
       <c r="T26">
-        <v>0.1130797117054139</v>
+        <v>0.08063752572782851</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H27">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I27">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J27">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P27">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q27">
-        <v>21.719872513205</v>
+        <v>9.651307760804444</v>
       </c>
       <c r="R27">
-        <v>195.478852618845</v>
+        <v>86.86176984724001</v>
       </c>
       <c r="S27">
-        <v>0.003469938328925593</v>
+        <v>0.002154689259460631</v>
       </c>
       <c r="T27">
-        <v>0.005292622199826517</v>
+        <v>0.003951233289674639</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H28">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I28">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J28">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N28">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O28">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P28">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q28">
-        <v>12.477611071257</v>
+        <v>0.8243262378302223</v>
       </c>
       <c r="R28">
-        <v>112.298499641313</v>
+        <v>7.418936140472</v>
       </c>
       <c r="S28">
-        <v>0.001993406769918104</v>
+        <v>0.0001840338050515472</v>
       </c>
       <c r="T28">
-        <v>0.003040500413452524</v>
+        <v>0.0003374781276475993</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H29">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I29">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J29">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N29">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O29">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P29">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q29">
-        <v>14.041755338985</v>
+        <v>9.620429872044001</v>
       </c>
       <c r="R29">
-        <v>84.25053203390999</v>
+        <v>57.722579232264</v>
       </c>
       <c r="S29">
-        <v>0.002243292405446531</v>
+        <v>0.00214779565945161</v>
       </c>
       <c r="T29">
-        <v>0.002281097060966071</v>
+        <v>0.002625727947168354</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H30">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I30">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J30">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N30">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O30">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P30">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q30">
-        <v>433.506622729479</v>
+        <v>4.934298987253333</v>
       </c>
       <c r="R30">
-        <v>3901.559604565311</v>
+        <v>44.40869088528</v>
       </c>
       <c r="S30">
-        <v>0.0692564491406464</v>
+        <v>0.001101600041600585</v>
       </c>
       <c r="T30">
-        <v>0.1056353702736949</v>
+        <v>0.002020095815286505</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.458139</v>
+        <v>5.535821333333334</v>
       </c>
       <c r="H31">
-        <v>37.374417</v>
+        <v>16.607464</v>
       </c>
       <c r="I31">
-        <v>0.190886255449412</v>
+        <v>0.0722070778698555</v>
       </c>
       <c r="J31">
-        <v>0.2334742898692961</v>
+        <v>0.09078051035434934</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N31">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O31">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P31">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q31">
-        <v>17.010210103784</v>
+        <v>2.951766364789334</v>
       </c>
       <c r="R31">
-        <v>153.091890934056</v>
+        <v>26.565897283104</v>
       </c>
       <c r="S31">
-        <v>0.002717528843058933</v>
+        <v>0.0006589924847778977</v>
       </c>
       <c r="T31">
-        <v>0.004144988215942149</v>
+        <v>0.001208449446743721</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H32">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I32">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J32">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N32">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O32">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P32">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q32">
-        <v>115.887207637448</v>
+        <v>670.4462741385562</v>
       </c>
       <c r="R32">
-        <v>695.3232458246881</v>
+        <v>4022.677644831337</v>
       </c>
       <c r="S32">
-        <v>0.01851398820913255</v>
+        <v>0.1496795482782674</v>
       </c>
       <c r="T32">
-        <v>0.01882599164873755</v>
+        <v>0.1829865757034491</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H33">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I33">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J33">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.230285</v>
       </c>
       <c r="O33">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P33">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q33">
-        <v>3.616016811313334</v>
+        <v>21.90121463015389</v>
       </c>
       <c r="R33">
-        <v>32.54415130182</v>
+        <v>197.110931671385</v>
       </c>
       <c r="S33">
-        <v>0.0005776901003441453</v>
+        <v>0.004889525140249105</v>
       </c>
       <c r="T33">
-        <v>0.0008811382681398065</v>
+        <v>0.008966329794436102</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H34">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I34">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J34">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N34">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O34">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P34">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q34">
-        <v>2.077325793292</v>
+        <v>1.870600990811444</v>
       </c>
       <c r="R34">
-        <v>18.695932139628</v>
+        <v>16.835408917303</v>
       </c>
       <c r="S34">
-        <v>0.0003318708425856237</v>
+        <v>0.0004176184164395441</v>
       </c>
       <c r="T34">
-        <v>0.0005061954485766505</v>
+        <v>0.0007658216989628441</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H35">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I35">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J35">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N35">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O35">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P35">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q35">
-        <v>2.33773118766</v>
+        <v>21.8311450306935</v>
       </c>
       <c r="R35">
-        <v>14.02638712596</v>
+        <v>130.986870184161</v>
       </c>
       <c r="S35">
-        <v>0.0003734728666503209</v>
+        <v>0.004873881849504077</v>
       </c>
       <c r="T35">
-        <v>0.0003797667465900607</v>
+        <v>0.005958428925546381</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H36">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I36">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J36">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N36">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O36">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P36">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q36">
-        <v>72.172027467124</v>
+        <v>11.19715004924667</v>
       </c>
       <c r="R36">
-        <v>649.548247204116</v>
+        <v>100.77435044322</v>
       </c>
       <c r="S36">
-        <v>0.01153010839415329</v>
+        <v>0.002499804124541763</v>
       </c>
       <c r="T36">
-        <v>0.01758662600559733</v>
+        <v>0.00458409918329843</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.074084</v>
+        <v>12.56215366666667</v>
       </c>
       <c r="H37">
-        <v>6.222252</v>
+        <v>37.68646099999999</v>
       </c>
       <c r="I37">
-        <v>0.03177955617990281</v>
+        <v>0.163855795446329</v>
       </c>
       <c r="J37">
-        <v>0.03886979339604969</v>
+        <v>0.2060035272711885</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N37">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O37">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P37">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q37">
-        <v>2.831932170037334</v>
+        <v>6.698291080910666</v>
       </c>
       <c r="R37">
-        <v>25.487389530336</v>
+        <v>60.28461972819599</v>
       </c>
       <c r="S37">
-        <v>0.0004524257670368779</v>
+        <v>0.001495417637327128</v>
       </c>
       <c r="T37">
-        <v>0.0006900752784082885</v>
+        <v>0.002742271965495683</v>
       </c>
     </row>
   </sheetData>
